--- a/espn_scrapper/IPL/Sunrisers Hyderabad/Priyam Garg .xlsx
+++ b/espn_scrapper/IPL/Sunrisers Hyderabad/Priyam Garg .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -787,9 +787,254 @@
         <v>114.28</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve"> Nov 8 2020</v>
+      </c>
+      <c r="B12" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Capitals won by 17 runs</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="F12" t="str">
+        <v xml:space="preserve">Priyam Garg </v>
+      </c>
+      <c r="G12" t="str">
+        <v>17</v>
+      </c>
+      <c r="H12" t="str">
+        <v>12</v>
+      </c>
+      <c r="I12" t="str">
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <v>2</v>
+      </c>
+      <c r="K12" t="str">
+        <v>141.66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve"> Nov 6 2020</v>
+      </c>
+      <c r="B13" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Sunrisers won by 6 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F13" t="str">
+        <v xml:space="preserve">Priyam Garg </v>
+      </c>
+      <c r="G13" t="str">
+        <v>7</v>
+      </c>
+      <c r="H13" t="str">
+        <v>14</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve"> Oct 11 2020</v>
+      </c>
+      <c r="B14" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Royals won by 5 wickets (with 1 ball remaining)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve">Priyam Garg </v>
+      </c>
+      <c r="G14" t="str">
+        <v>15</v>
+      </c>
+      <c r="H14" t="str">
+        <v>8</v>
+      </c>
+      <c r="I14" t="str">
+        <v>1</v>
+      </c>
+      <c r="J14" t="str">
+        <v>1</v>
+      </c>
+      <c r="K14" t="str">
+        <v>187.50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve"> Oct 24 2020</v>
+      </c>
+      <c r="B15" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Kings XI won by 12 runs</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F15" t="str">
+        <v xml:space="preserve">Priyam Garg </v>
+      </c>
+      <c r="G15" t="str">
+        <v>3</v>
+      </c>
+      <c r="H15" t="str">
+        <v>5</v>
+      </c>
+      <c r="I15" t="str">
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <v>60.00</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve"> Oct 4 2020</v>
+      </c>
+      <c r="B16" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Mumbai won by 34 runs</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F16" t="str">
+        <v xml:space="preserve">Priyam Garg </v>
+      </c>
+      <c r="G16" t="str">
+        <v>8</v>
+      </c>
+      <c r="H16" t="str">
+        <v>7</v>
+      </c>
+      <c r="I16" t="str">
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v>114.28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve"> Oct 13 2020</v>
+      </c>
+      <c r="B17" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Super Kings won by 20 runs</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F17" t="str">
+        <v xml:space="preserve">Priyam Garg </v>
+      </c>
+      <c r="G17" t="str">
+        <v>16</v>
+      </c>
+      <c r="H17" t="str">
+        <v>18</v>
+      </c>
+      <c r="I17" t="str">
+        <v>1</v>
+      </c>
+      <c r="J17" t="str">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve"> Oct 18 2020</v>
+      </c>
+      <c r="B18" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Match tied (KKR won the one-over eliminator)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F18" t="str">
+        <v xml:space="preserve">Priyam Garg </v>
+      </c>
+      <c r="G18" t="str">
+        <v>4</v>
+      </c>
+      <c r="H18" t="str">
+        <v>7</v>
+      </c>
+      <c r="I18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <v>57.14</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K18"/>
   </ignoredErrors>
 </worksheet>
 </file>